--- a/static/rankers.xlsx
+++ b/static/rankers.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -25,10 +28,76 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Gouiranga mall</t>
-  </si>
-  <si>
-    <t>2024-25</t>
+    <t>Vivaan Rane</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>Shreya Nair</t>
+  </si>
+  <si>
+    <t>Ashlin Joseph</t>
+  </si>
+  <si>
+    <t>Aditya Patil</t>
+  </si>
+  <si>
+    <t>Ankana Samanta</t>
+  </si>
+  <si>
+    <t>Ananta Krishnan</t>
+  </si>
+  <si>
+    <t>Arhaan Shaikh</t>
+  </si>
+  <si>
+    <t>Cheryl Sajimon</t>
+  </si>
+  <si>
+    <t>Gunjan Kolambekar</t>
+  </si>
+  <si>
+    <t>Shreya Shinde</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Sharan Nair</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>Ayaan Modak</t>
+  </si>
+  <si>
+    <t>Daksh Mhatre</t>
+  </si>
+  <si>
+    <t>Aditya Nambiar</t>
+  </si>
+  <si>
+    <t>Ayush Verma</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>Kavish Kale</t>
+  </si>
+  <si>
+    <t>Shivam Thakur</t>
+  </si>
+  <si>
+    <t>George Binny</t>
   </si>
 </sst>
 </file>
@@ -399,20 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,96 +492,269 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>100</v>
+        <v>94.2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>93.8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>91</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>90.8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>90.6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2">
+        <v>90.6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B11">
+    <sortState ref="A2:D19">
+      <sortCondition descending="1" ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>